--- a/protocol/MF6pt2.xlsx
+++ b/protocol/MF6pt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9ED3ED-7559-462E-B3F7-42545CC93B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFE56B-0B94-4723-AC99-BB71EB076AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF6.2" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="30">
   <si>
     <t>Combined</t>
   </si>
@@ -115,15 +115,6 @@
   </si>
   <si>
     <t>-SR</t>
-  </si>
-  <si>
-    <t>L4</t>
-  </si>
-  <si>
-    <t>L5</t>
-  </si>
-  <si>
-    <t>L6</t>
   </si>
 </sst>
 </file>
@@ -561,9 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58031019-AFD2-4461-8B24-C325E2174DEC}">
   <dimension ref="A1:H200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H195" sqref="H195"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1591,7 +1582,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E40" s="1">
         <v>0</v>
@@ -1617,7 +1608,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>25</v>
@@ -1643,7 +1634,7 @@
         <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="E42" s="1" t="s">
         <v>25</v>
@@ -1669,7 +1660,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>24</v>
@@ -1695,7 +1686,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>24</v>

--- a/protocol/MF6pt2.xlsx
+++ b/protocol/MF6pt2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDBFE56B-0B94-4723-AC99-BB71EB076AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C9AA7-0E23-4151-A7B0-0FD627960685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MF6.2" sheetId="12" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="34">
   <si>
     <t>Combined</t>
   </si>
@@ -115,6 +115,18 @@
   </si>
   <si>
     <t>-SR</t>
+  </si>
+  <si>
+    <t>Job</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>Old Job</t>
   </si>
 </sst>
 </file>
@@ -254,9 +266,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -294,7 +306,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -400,7 +412,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -542,7 +554,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -550,11 +562,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58031019-AFD2-4461-8B24-C325E2174DEC}">
-  <dimension ref="A1:H200"/>
+  <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -571,7 +583,7 @@
     <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="25.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="25.8" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>1</v>
       </c>
@@ -582,8 +594,10 @@
       <c r="F1" s="9"/>
       <c r="G1" s="9"/>
       <c r="H1" s="9"/>
-    </row>
-    <row r="2" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+    </row>
+    <row r="2" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>15</v>
       </c>
@@ -608,8 +622,14 @@
       <c r="H2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -634,8 +654,14 @@
       <c r="H3" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -660,8 +686,14 @@
       <c r="H4" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -686,8 +718,14 @@
       <c r="H5" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -712,8 +750,14 @@
       <c r="H6" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -738,8 +782,14 @@
       <c r="H7" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -764,8 +814,14 @@
       <c r="H8" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -790,8 +846,14 @@
       <c r="H9" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -816,8 +878,14 @@
       <c r="H10" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I10" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -842,8 +910,14 @@
       <c r="H11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -868,8 +942,14 @@
       <c r="H12" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I12" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -894,8 +974,14 @@
       <c r="H13" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -920,8 +1006,14 @@
       <c r="H14" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I14" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -946,8 +1038,14 @@
       <c r="H15" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I15" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -972,8 +1070,14 @@
       <c r="H16" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -998,8 +1102,14 @@
       <c r="H17" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I17" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1024,8 +1134,14 @@
       <c r="H18" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1050,8 +1166,14 @@
       <c r="H19" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I19" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1076,8 +1198,14 @@
       <c r="H20" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I20" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1102,8 +1230,14 @@
       <c r="H21" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I21" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1128,8 +1262,14 @@
       <c r="H22" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I22" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1154,8 +1294,14 @@
       <c r="H23" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I23" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1180,8 +1326,14 @@
       <c r="H24" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I24" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1206,8 +1358,14 @@
       <c r="H25" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I25" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1232,8 +1390,14 @@
       <c r="H26" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1258,8 +1422,14 @@
       <c r="H27" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I27" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1284,8 +1454,14 @@
       <c r="H28" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I28" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1310,8 +1486,14 @@
       <c r="H29" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1336,8 +1518,14 @@
       <c r="H30" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I30" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1362,8 +1550,14 @@
       <c r="H31" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I31" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1388,8 +1582,14 @@
       <c r="H32" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I32" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1414,8 +1614,14 @@
       <c r="H33" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1440,8 +1646,14 @@
       <c r="H34" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1466,8 +1678,14 @@
       <c r="H35" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I35" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1492,8 +1710,14 @@
       <c r="H36" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I36" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1518,8 +1742,14 @@
       <c r="H37" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1544,8 +1774,14 @@
       <c r="H38" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1570,8 +1806,14 @@
       <c r="H39" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1596,8 +1838,14 @@
       <c r="H40" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1622,8 +1870,14 @@
       <c r="H41" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1648,8 +1902,14 @@
       <c r="H42" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1674,8 +1934,14 @@
       <c r="H43" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1700,8 +1966,14 @@
       <c r="H44" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1726,8 +1998,14 @@
       <c r="H45" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1752,8 +2030,14 @@
       <c r="H46" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1778,8 +2062,14 @@
       <c r="H47" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I47" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J47" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1804,8 +2094,14 @@
       <c r="H48" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I48" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J48" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1830,8 +2126,14 @@
       <c r="H49" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I49" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1856,8 +2158,14 @@
       <c r="H50" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1882,8 +2190,14 @@
       <c r="H51" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I51" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1908,8 +2222,14 @@
       <c r="H52" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I52" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1934,8 +2254,14 @@
       <c r="H53" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I53" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1960,8 +2286,14 @@
       <c r="H54" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I54" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J54" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1986,8 +2318,14 @@
       <c r="H55" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I55" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2012,8 +2350,14 @@
       <c r="H56" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I56" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J56" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2038,8 +2382,14 @@
       <c r="H57" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I57" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J57" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2064,8 +2414,14 @@
       <c r="H58" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I58" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J58" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2090,8 +2446,14 @@
       <c r="H59" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I59" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J59" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2116,8 +2478,14 @@
       <c r="H60" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I60" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2142,8 +2510,14 @@
       <c r="H61" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I61" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J61" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2168,8 +2542,14 @@
       <c r="H62" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I62" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J62" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2194,8 +2574,14 @@
       <c r="H63" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I63" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J63" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2220,8 +2606,14 @@
       <c r="H64" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I64" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J64" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2246,8 +2638,14 @@
       <c r="H65" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I65" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J65" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2272,8 +2670,14 @@
       <c r="H66" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I66" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J66" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2298,8 +2702,14 @@
       <c r="H67" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I67" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J67" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2324,8 +2734,14 @@
       <c r="H68" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I68" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J68" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2350,8 +2766,14 @@
       <c r="H69" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I69" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J69" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2376,8 +2798,14 @@
       <c r="H70" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I70" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J70" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2402,8 +2830,14 @@
       <c r="H71" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I71" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J71" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2428,8 +2862,14 @@
       <c r="H72" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I72" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J72" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2454,8 +2894,14 @@
       <c r="H73" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I73" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2480,8 +2926,14 @@
       <c r="H74" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I74" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J74" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2506,8 +2958,14 @@
       <c r="H75" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I75" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J75" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2532,8 +2990,14 @@
       <c r="H76" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I76" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J76" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2558,8 +3022,14 @@
       <c r="H77" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I77" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J77" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2584,8 +3054,14 @@
       <c r="H78" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J78" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2610,8 +3086,14 @@
       <c r="H79" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J79" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2636,8 +3118,14 @@
       <c r="H80" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2662,8 +3150,14 @@
       <c r="H81" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I81" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J81" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2688,8 +3182,14 @@
       <c r="H82" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I82" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J82" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2714,8 +3214,14 @@
       <c r="H83" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I83" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J83" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2740,8 +3246,14 @@
       <c r="H84" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I84" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J84" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2766,8 +3278,14 @@
       <c r="H85" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I85" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J85" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2792,8 +3310,14 @@
       <c r="H86" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I86" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J86" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2818,8 +3342,14 @@
       <c r="H87" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I87" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2844,8 +3374,14 @@
       <c r="H88" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I88" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J88" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2870,8 +3406,14 @@
       <c r="H89" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I89" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J89" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2896,8 +3438,14 @@
       <c r="H90" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I90" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J90" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2922,8 +3470,14 @@
       <c r="H91" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I91" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J91" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2948,8 +3502,14 @@
       <c r="H92" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I92" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J92" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2974,8 +3534,14 @@
       <c r="H93" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I93" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J93" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3000,8 +3566,14 @@
       <c r="H94" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J94" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3026,8 +3598,14 @@
       <c r="H95" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I95" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J95" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3052,8 +3630,14 @@
       <c r="H96" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I96" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3078,8 +3662,14 @@
       <c r="H97" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I97" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J97" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3104,8 +3694,14 @@
       <c r="H98" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I98" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J98" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3130,8 +3726,14 @@
       <c r="H99" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I99" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J99" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3156,8 +3758,14 @@
       <c r="H100" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I100" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J100" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3182,8 +3790,14 @@
       <c r="H101" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I101" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J101" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3208,8 +3822,14 @@
       <c r="H102" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I102" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3234,8 +3854,14 @@
       <c r="H103" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I103" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3260,8 +3886,14 @@
       <c r="H104" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I104" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J104" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3286,8 +3918,14 @@
       <c r="H105" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I105" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J105" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3312,8 +3950,14 @@
       <c r="H106" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I106" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J106" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3338,8 +3982,14 @@
       <c r="H107" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I107" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J107" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3364,8 +4014,14 @@
       <c r="H108" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I108" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3390,8 +4046,14 @@
       <c r="H109" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I109" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J109" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3416,8 +4078,14 @@
       <c r="H110" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I110" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J110" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3442,8 +4110,14 @@
       <c r="H111" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I111" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3468,8 +4142,14 @@
       <c r="H112" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I112" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3494,8 +4174,14 @@
       <c r="H113" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I113" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J113" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3520,8 +4206,14 @@
       <c r="H114" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I114" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J114" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3546,8 +4238,14 @@
       <c r="H115" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I115" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3572,8 +4270,14 @@
       <c r="H116" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I116" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3598,8 +4302,14 @@
       <c r="H117" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I117" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J117" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3624,8 +4334,14 @@
       <c r="H118" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I118" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J118" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3650,8 +4366,14 @@
       <c r="H119" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I119" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J119" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3676,8 +4398,14 @@
       <c r="H120" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I120" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3702,8 +4430,14 @@
       <c r="H121" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I121" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J121" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3728,8 +4462,14 @@
       <c r="H122" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I122" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J122" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3754,8 +4494,14 @@
       <c r="H123" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I123" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J123" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3780,8 +4526,14 @@
       <c r="H124" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I124" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J124" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3806,8 +4558,14 @@
       <c r="H125" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I125" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J125" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3832,8 +4590,14 @@
       <c r="H126" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I126" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J126" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3858,8 +4622,14 @@
       <c r="H127" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I127" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J127" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3884,8 +4654,14 @@
       <c r="H128" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I128" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J128" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3910,8 +4686,14 @@
       <c r="H129" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I129" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J129" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3936,8 +4718,14 @@
       <c r="H130" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I130" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J130" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3962,8 +4750,14 @@
       <c r="H131" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I131" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J131" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3988,8 +4782,14 @@
       <c r="H132" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I132" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -4014,8 +4814,14 @@
       <c r="H133" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I133" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -4040,8 +4846,14 @@
       <c r="H134" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I134" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -4066,8 +4878,14 @@
       <c r="H135" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I135" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -4092,8 +4910,14 @@
       <c r="H136" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I136" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J136" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4118,8 +4942,14 @@
       <c r="H137" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I137" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J137" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4144,8 +4974,14 @@
       <c r="H138" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J138" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4170,8 +5006,14 @@
       <c r="H139" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I139" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J139" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4196,8 +5038,14 @@
       <c r="H140" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I140" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J140" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4222,8 +5070,14 @@
       <c r="H141" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I141" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J141" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4248,8 +5102,14 @@
       <c r="H142" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I142" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J142" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4274,8 +5134,14 @@
       <c r="H143" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I143" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4300,8 +5166,14 @@
       <c r="H144" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I144" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J144" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4326,8 +5198,14 @@
       <c r="H145" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I145" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J145" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4352,8 +5230,14 @@
       <c r="H146" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I146" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4378,8 +5262,14 @@
       <c r="H147" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I147" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J147" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4404,8 +5294,14 @@
       <c r="H148" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I148" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J148" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4430,8 +5326,14 @@
       <c r="H149" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I149" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J149" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4456,8 +5358,14 @@
       <c r="H150" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I150" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4482,8 +5390,14 @@
       <c r="H151" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I151" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J151" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4508,8 +5422,14 @@
       <c r="H152" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I152" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J152" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4534,8 +5454,14 @@
       <c r="H153" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I153" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J153" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4560,8 +5486,14 @@
       <c r="H154" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I154" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J154" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4586,8 +5518,14 @@
       <c r="H155" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I155" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J155" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4612,8 +5550,14 @@
       <c r="H156" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I156" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J156" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4638,8 +5582,14 @@
       <c r="H157" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I157" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J157" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4664,8 +5614,14 @@
       <c r="H158" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I158" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J158" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4690,8 +5646,14 @@
       <c r="H159" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I159" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J159" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4716,8 +5678,14 @@
       <c r="H160" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I160" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J160" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4742,8 +5710,14 @@
       <c r="H161" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I161" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J161" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4768,8 +5742,14 @@
       <c r="H162" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I162" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J162" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4794,8 +5774,14 @@
       <c r="H163" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I163" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J163" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4820,8 +5806,14 @@
       <c r="H164" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I164" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J164" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4846,8 +5838,14 @@
       <c r="H165" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I165" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J165" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4872,8 +5870,14 @@
       <c r="H166" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I166" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J166" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4898,8 +5902,14 @@
       <c r="H167" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I167" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J167" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4924,8 +5934,14 @@
       <c r="H168" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I168" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J168" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4950,8 +5966,14 @@
       <c r="H169" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I169" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J169" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4976,8 +5998,14 @@
       <c r="H170" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I170" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J170" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -5002,8 +6030,14 @@
       <c r="H171" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I171" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J171" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -5028,8 +6062,14 @@
       <c r="H172" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I172" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J172" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -5054,8 +6094,14 @@
       <c r="H173" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I173" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J173" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -5080,8 +6126,14 @@
       <c r="H174" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I174" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J174" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -5106,8 +6158,14 @@
       <c r="H175" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I175" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J175" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -5132,8 +6190,14 @@
       <c r="H176" s="1">
         <v>40</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I176" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J176" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -5158,8 +6222,14 @@
       <c r="H177" s="1">
         <v>80</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I177" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J177" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -5184,8 +6254,14 @@
       <c r="H178" s="1">
         <v>100</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I178" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J178" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -5210,8 +6286,14 @@
       <c r="H179" s="1">
         <v>140</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I179" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J179" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -5236,8 +6318,14 @@
       <c r="H180" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I180" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J180" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -5262,8 +6350,14 @@
       <c r="H181" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I181" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J181" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -5288,8 +6382,14 @@
       <c r="H182" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I182" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J182" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -5314,8 +6414,14 @@
       <c r="H183" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I183" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J183" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -5340,8 +6446,14 @@
       <c r="H184" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I184" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J184" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -5366,8 +6478,14 @@
       <c r="H185" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I185" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J185" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -5392,8 +6510,14 @@
       <c r="H186" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I186" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J186" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -5418,8 +6542,14 @@
       <c r="H187" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I187" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J187" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -5444,8 +6574,14 @@
       <c r="H188" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I188" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J188" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -5470,8 +6606,14 @@
       <c r="H189" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I189" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J189" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -5496,8 +6638,14 @@
       <c r="H190" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="I190" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J190" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -5522,8 +6670,14 @@
       <c r="H191" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I191" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J191" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -5548,8 +6702,14 @@
       <c r="H192" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I192" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J192" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -5574,8 +6734,14 @@
       <c r="H193" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I193" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J193" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -5600,8 +6766,14 @@
       <c r="H194" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I194" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J194" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -5626,8 +6798,14 @@
       <c r="H195" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I195" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J195" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -5652,8 +6830,14 @@
       <c r="H196" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I196" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J196" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -5678,8 +6862,14 @@
       <c r="H197" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I197" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -5704,8 +6894,14 @@
       <c r="H198" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I198" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J198" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -5730,8 +6926,14 @@
       <c r="H199" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I199" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J199" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -5756,10 +6958,16 @@
       <c r="H200" s="1">
         <v>0</v>
       </c>
+      <c r="I200" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J200" s="1" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/protocol/MF6pt2.xlsx
+++ b/protocol/MF6pt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{687C9AA7-0E23-4151-A7B0-0FD627960685}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2A243-3682-4906-9BA9-451B1A53AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="56">
   <si>
     <t>Combined</t>
   </si>
@@ -127,6 +127,72 @@
   </si>
   <si>
     <t>Old Job</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac1</t>
+  </si>
+  <si>
+    <t>rollingtire_freeroll</t>
+  </si>
+  <si>
+    <t>tiretransfer_axi_half</t>
+  </si>
+  <si>
+    <t>tiretransfer_full</t>
+  </si>
+  <si>
+    <t>tiretransfer_node</t>
+  </si>
+  <si>
+    <t>tiretransfer_symmetric</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac2</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac3</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac4</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac5</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac6</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac7</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac8</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac9</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac10</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac11</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac12</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac13</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac14</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac15</t>
+  </si>
+  <si>
+    <t>rollingtire_brake_trac16</t>
   </si>
 </sst>
 </file>
@@ -564,9 +630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58031019-AFD2-4461-8B24-C325E2174DEC}">
   <dimension ref="A1:J200"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -580,6 +646,7 @@
     <col min="7" max="7" width="16.109375" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.77734375" style="8" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36.44140625" customWidth="1"/>
+    <col min="10" max="10" width="24.77734375" customWidth="1"/>
     <col min="14" max="14" width="22.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -655,10 +722,10 @@
         <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -687,10 +754,10 @@
         <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -719,10 +786,10 @@
         <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -751,10 +818,10 @@
         <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -783,10 +850,10 @@
         <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -815,10 +882,10 @@
         <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -847,10 +914,10 @@
         <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -879,10 +946,10 @@
         <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -911,10 +978,10 @@
         <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -943,10 +1010,10 @@
         <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -975,10 +1042,10 @@
         <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1007,10 +1074,10 @@
         <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1039,10 +1106,10 @@
         <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1071,10 +1138,10 @@
         <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1103,10 +1170,10 @@
         <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1135,10 +1202,10 @@
         <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1167,10 +1234,10 @@
         <v>22</v>
       </c>
       <c r="I19" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1199,10 +1266,10 @@
         <v>22</v>
       </c>
       <c r="I20" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1231,10 +1298,10 @@
         <v>22</v>
       </c>
       <c r="I21" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
@@ -1263,10 +1330,10 @@
         <v>22</v>
       </c>
       <c r="I22" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
@@ -1295,10 +1362,10 @@
         <v>22</v>
       </c>
       <c r="I23" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
@@ -1327,10 +1394,10 @@
         <v>22</v>
       </c>
       <c r="I24" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
@@ -1359,10 +1426,10 @@
         <v>22</v>
       </c>
       <c r="I25" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
@@ -1391,10 +1458,10 @@
         <v>22</v>
       </c>
       <c r="I26" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
@@ -1423,10 +1490,10 @@
         <v>22</v>
       </c>
       <c r="I27" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
@@ -1455,10 +1522,10 @@
         <v>22</v>
       </c>
       <c r="I28" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
@@ -1487,10 +1554,10 @@
         <v>22</v>
       </c>
       <c r="I29" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
@@ -1519,10 +1586,10 @@
         <v>22</v>
       </c>
       <c r="I30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
@@ -1551,10 +1618,10 @@
         <v>22</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
@@ -1583,10 +1650,10 @@
         <v>22</v>
       </c>
       <c r="I32" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1615,10 +1682,10 @@
         <v>22</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
@@ -1647,10 +1714,10 @@
         <v>22</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
@@ -1679,10 +1746,10 @@
         <v>22</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
@@ -1711,10 +1778,10 @@
         <v>22</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
@@ -1743,10 +1810,10 @@
         <v>22</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
@@ -1775,10 +1842,10 @@
         <v>22</v>
       </c>
       <c r="I38" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -1807,10 +1874,10 @@
         <v>22</v>
       </c>
       <c r="I39" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
@@ -1839,10 +1906,10 @@
         <v>22</v>
       </c>
       <c r="I40" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
@@ -1871,10 +1938,10 @@
         <v>22</v>
       </c>
       <c r="I41" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
@@ -1903,10 +1970,10 @@
         <v>22</v>
       </c>
       <c r="I42" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
@@ -1935,10 +2002,10 @@
         <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
@@ -1967,10 +2034,10 @@
         <v>22</v>
       </c>
       <c r="I44" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -1999,10 +2066,10 @@
         <v>22</v>
       </c>
       <c r="I45" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
@@ -2031,10 +2098,10 @@
         <v>22</v>
       </c>
       <c r="I46" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
@@ -2063,10 +2130,10 @@
         <v>22</v>
       </c>
       <c r="I47" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
@@ -2095,10 +2162,10 @@
         <v>22</v>
       </c>
       <c r="I48" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
@@ -2127,10 +2194,10 @@
         <v>22</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
@@ -2159,10 +2226,10 @@
         <v>22</v>
       </c>
       <c r="I50" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2191,10 +2258,10 @@
         <v>22</v>
       </c>
       <c r="I51" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
@@ -2223,10 +2290,10 @@
         <v>22</v>
       </c>
       <c r="I52" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
@@ -2255,10 +2322,10 @@
         <v>22</v>
       </c>
       <c r="I53" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
@@ -2287,10 +2354,10 @@
         <v>22</v>
       </c>
       <c r="I54" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
@@ -2319,10 +2386,10 @@
         <v>22</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -2351,10 +2418,10 @@
         <v>22</v>
       </c>
       <c r="I56" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2383,10 +2450,10 @@
         <v>22</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
@@ -2415,10 +2482,10 @@
         <v>22</v>
       </c>
       <c r="I58" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.3">
@@ -2447,10 +2514,10 @@
         <v>22</v>
       </c>
       <c r="I59" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.3">
@@ -2479,10 +2546,10 @@
         <v>22</v>
       </c>
       <c r="I60" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.3">
@@ -2511,10 +2578,10 @@
         <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -2543,10 +2610,10 @@
         <v>22</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2575,10 +2642,10 @@
         <v>22</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -2607,10 +2674,10 @@
         <v>22</v>
       </c>
       <c r="I64" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.3">
@@ -2639,10 +2706,10 @@
         <v>22</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -2671,10 +2738,10 @@
         <v>22</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -2703,10 +2770,10 @@
         <v>22</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -2735,10 +2802,10 @@
         <v>22</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2767,10 +2834,10 @@
         <v>22</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -2799,10 +2866,10 @@
         <v>22</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.3">
@@ -2831,10 +2898,10 @@
         <v>22</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J71" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -2863,10 +2930,10 @@
         <v>22</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J72" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -2895,10 +2962,10 @@
         <v>22</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -2927,10 +2994,10 @@
         <v>22</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -2959,10 +3026,10 @@
         <v>22</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.3">
@@ -2991,10 +3058,10 @@
         <v>22</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -3023,10 +3090,10 @@
         <v>22</v>
       </c>
       <c r="I77" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.3">
@@ -3055,10 +3122,10 @@
         <v>22</v>
       </c>
       <c r="I78" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -3087,10 +3154,10 @@
         <v>22</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -3119,10 +3186,10 @@
         <v>22</v>
       </c>
       <c r="I80" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3151,10 +3218,10 @@
         <v>22</v>
       </c>
       <c r="I81" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.3">
@@ -3183,10 +3250,10 @@
         <v>22</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.3">
@@ -3215,10 +3282,10 @@
         <v>22</v>
       </c>
       <c r="I83" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.3">
@@ -3247,10 +3314,10 @@
         <v>22</v>
       </c>
       <c r="I84" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.3">
@@ -3279,10 +3346,10 @@
         <v>22</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.3">
@@ -3311,10 +3378,10 @@
         <v>22</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3343,10 +3410,10 @@
         <v>22</v>
       </c>
       <c r="I87" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.3">
@@ -3375,10 +3442,10 @@
         <v>22</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.3">
@@ -3407,10 +3474,10 @@
         <v>22</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.3">
@@ -3439,10 +3506,10 @@
         <v>22</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.3">
@@ -3471,10 +3538,10 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.3">
@@ -3503,10 +3570,10 @@
         <v>22</v>
       </c>
       <c r="I92" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3535,10 +3602,10 @@
         <v>22</v>
       </c>
       <c r="I93" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.3">
@@ -3567,10 +3634,10 @@
         <v>22</v>
       </c>
       <c r="I94" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.3">
@@ -3599,10 +3666,10 @@
         <v>22</v>
       </c>
       <c r="I95" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.3">
@@ -3631,10 +3698,10 @@
         <v>22</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -3663,10 +3730,10 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.3">
@@ -3695,10 +3762,10 @@
         <v>22</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>32</v>
+        <v>52</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3727,10 +3794,10 @@
         <v>22</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.3">
@@ -3759,10 +3826,10 @@
         <v>22</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.3">
@@ -3791,10 +3858,10 @@
         <v>22</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.3">
@@ -3823,10 +3890,10 @@
         <v>22</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.3">
@@ -3855,10 +3922,10 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -3887,10 +3954,10 @@
         <v>22</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -3919,10 +3986,10 @@
         <v>22</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -3951,10 +4018,10 @@
         <v>22</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.3">
@@ -3983,10 +4050,10 @@
         <v>22</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -4015,10 +4082,10 @@
         <v>22</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.3">
@@ -4047,10 +4114,10 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -4079,10 +4146,10 @@
         <v>22</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4111,10 +4178,10 @@
         <v>22</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.3">
@@ -4143,10 +4210,10 @@
         <v>22</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.3">
@@ -4175,10 +4242,10 @@
         <v>22</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J113" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -4207,10 +4274,10 @@
         <v>22</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.3">
@@ -4239,10 +4306,10 @@
         <v>22</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>31</v>
+        <v>55</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.3">
@@ -6543,10 +6610,10 @@
         <v>0</v>
       </c>
       <c r="I187" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="J187" s="1" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6575,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="I188" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="J188" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
@@ -6607,10 +6674,10 @@
         <v>0</v>
       </c>
       <c r="I189" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="J189" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6639,10 +6706,10 @@
         <v>0</v>
       </c>
       <c r="I190" s="1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="J190" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -6671,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="I191" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="J191" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
@@ -6703,10 +6770,10 @@
         <v>0</v>
       </c>
       <c r="I192" s="1" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="J192" s="1" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -6735,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="I193" s="1" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="J193" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">

--- a/protocol/MF6pt2.xlsx
+++ b/protocol/MF6pt2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Apollo-Tyres\protocol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05A2A243-3682-4906-9BA9-451B1A53AEBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A13FD62-32F4-4851-97EC-6A7FFEB668A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1403" uniqueCount="41">
   <si>
     <t>Combined</t>
   </si>
@@ -148,51 +148,6 @@
   </si>
   <si>
     <t>tiretransfer_symmetric</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac2</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac3</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac4</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac5</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac6</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac7</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac8</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac9</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac10</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac11</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac12</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac13</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac14</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac15</t>
-  </si>
-  <si>
-    <t>rollingtire_brake_trac16</t>
   </si>
 </sst>
 </file>
@@ -631,8 +586,8 @@
   <dimension ref="A1:J200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="89" zoomScaleNormal="150" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A129" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J116" sqref="J116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1618,7 +1573,7 @@
         <v>22</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J31" s="1" t="s">
         <v>34</v>
@@ -1653,7 +1608,7 @@
         <v>36</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
@@ -1810,7 +1765,7 @@
         <v>22</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="J37" s="1" t="s">
         <v>34</v>
@@ -1845,7 +1800,7 @@
         <v>36</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
@@ -2002,7 +1957,7 @@
         <v>22</v>
       </c>
       <c r="I43" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="J43" s="1" t="s">
         <v>34</v>
@@ -2037,7 +1992,7 @@
         <v>36</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
@@ -2194,7 +2149,7 @@
         <v>22</v>
       </c>
       <c r="I49" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="J49" s="1" t="s">
         <v>34</v>
@@ -2229,7 +2184,7 @@
         <v>36</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
@@ -2386,7 +2341,7 @@
         <v>22</v>
       </c>
       <c r="I55" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="J55" s="1" t="s">
         <v>34</v>
@@ -2421,7 +2376,7 @@
         <v>36</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
@@ -2578,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="I61" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="J61" s="1" t="s">
         <v>34</v>
@@ -2613,7 +2568,7 @@
         <v>36</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -2770,7 +2725,7 @@
         <v>22</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="J67" s="1" t="s">
         <v>34</v>
@@ -2805,7 +2760,7 @@
         <v>36</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.3">
@@ -2962,7 +2917,7 @@
         <v>22</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="J73" s="1" t="s">
         <v>34</v>
@@ -2997,7 +2952,7 @@
         <v>36</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -3154,7 +3109,7 @@
         <v>22</v>
       </c>
       <c r="I79" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="J79" s="1" t="s">
         <v>34</v>
@@ -3189,7 +3144,7 @@
         <v>36</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.3">
@@ -3346,7 +3301,7 @@
         <v>22</v>
       </c>
       <c r="I85" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="J85" s="1" t="s">
         <v>34</v>
@@ -3381,7 +3336,7 @@
         <v>36</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.3">
@@ -3538,7 +3493,7 @@
         <v>22</v>
       </c>
       <c r="I91" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="J91" s="1" t="s">
         <v>34</v>
@@ -3573,7 +3528,7 @@
         <v>36</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.3">
@@ -3730,7 +3685,7 @@
         <v>22</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="J97" s="1" t="s">
         <v>34</v>
@@ -3765,7 +3720,7 @@
         <v>36</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>52</v>
+        <v>35</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -3922,7 +3877,7 @@
         <v>22</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="J103" s="1" t="s">
         <v>34</v>
@@ -3957,7 +3912,7 @@
         <v>36</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>53</v>
+        <v>35</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -4114,7 +4069,7 @@
         <v>22</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="J109" s="1" t="s">
         <v>34</v>
@@ -4149,7 +4104,7 @@
         <v>36</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -4306,7 +4261,7 @@
         <v>22</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="J115" s="1" t="s">
         <v>34</v>
@@ -4341,7 +4296,7 @@
         <v>31</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.3">
